--- a/biology/Mycologie/Aphelaria/Aphelaria.xlsx
+++ b/biology/Mycologie/Aphelaria/Aphelaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelaria est un genre de champignons de la famille des Aphelariaceae. Il présente une vingtaine d'espèces. Fort ressemblant aux Clavaires, elles étaient autrefois classées dans le genre Clavaria. 
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelaria est originaire des régions tropicales et subtropicales, comme la Nouvelle-Zélande, la Guadeloupe ou l'île de Java. Elles ne sont pas très bien caractérisées et n'ont pas encore été l'objet de publications importantes.[réf. nécessaire] 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Classé par EGH Corner, proche par la forme clavaroïdes du carpophore des Clavariaceae, ils se distinguent par des hyphes dégonflés.[style à revoir]
 </t>
@@ -573,26 +589,28 @@
           <t>Taxinomie et synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Aphelaria acericola (M.P. Christ. 1968), [1][réf. incomplète]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aphelaria acericola (M.P. Christ. 1968), [réf. incomplète]
 Aphelaria aurantiaca (Henn.) Corner, Ann. Bot. Mem. 1: P; 181 (1950)
 Aphelaria brunneola ((Berk. &amp; M.A. Curtis) Corner 1950)
 Clavaria brunneola (Berk. &amp; M.A. Curtis 1868) (synonyme)
-Aphelaria ceracea (Corner 1970), [2][réf. incomplète] Pakistan
-Aphelaria complanata (Cleland) R.H. Petersen 1969[3][réf. incomplète] Sud de l'Australie
-Aphelaria deflectens (Bres.) Corner 1950[4][réf. incomplète]
+Aphelaria ceracea (Corner 1970), [réf. incomplète] Pakistan
+Aphelaria complanata (Cleland) R.H. Petersen 1969[réf. incomplète] Sud de l'Australie
+Aphelaria deflectens (Bres.) Corner 1950[réf. incomplète]
 Lachnocladium deflectens Bres. 1920 (synonyme) 
 Aphelaria dendroides (Jungh.) Corner 1950 Nouvelle-Zélande
 Aphelaria flabellata (Wakef.) Corner 1950
 Aphelaria guadelupensis (Lév.) Corner
-Aphelaria incarnata Corner, [5][réf. incomplète]
-Aphelaria korupensis (P. Roberts 1999) [6][réf. incomplète]
+Aphelaria incarnata Corner, [réf. incomplète]
+Aphelaria korupensis (P. Roberts 1999) [réf. incomplète]
 Aphelaria lacerata R.H. Petersen &amp; M. Zang 1986
 Aphelaria portentosa (Berk. &amp; Broome) R.H. Petersen 1978
 Clavaria portentosa Berk. &amp; Broome 1882 (synonyme)
 Aphelaria subglobispora P. Roberts 1999 Cameroun
-Aphelaria spiculosa (Corner 1950), [7][réf. incomplète]
+Aphelaria spiculosa (Corner 1950), [réf. incomplète]
 Aphelaria trachodes (Berk.) Corner 1950;
 Aphelaria trispora Corner 1966;
 Aphelaria tropica (Mont.) Corner 1950
@@ -624,9 +642,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 octobre 2013)[8] et Index Fungorum                                      (27 octobre 2013)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 octobre 2013) et Index Fungorum                                      (27 octobre 2013) :
 Aphelaria acericola M.P. Christ. 1968
 Aphelaria aurantiaca (Henn.) Corner 1950
 Aphelaria brunneola (Berk. &amp; M.A. Curtis) Corner 1950
